--- a/dataset/digoxin_normal renal function.xlsx
+++ b/dataset/digoxin_normal renal function.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/po8_fox/PycharmProjects/PharmacokineticAnalysis/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C9BC3-FEFC-4C20-B7DD-EFE2D48F91C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CD6579-B785-C349-A0D3-15965BFF498F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09659325-D903-457B-A2C1-48E0DB79E4EC}"/>
+    <workbookView xWindow="3760" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{09659325-D903-457B-A2C1-48E0DB79E4EC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Time(hr)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,12 +111,24 @@
     <t>Cp(ng/mL)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -476,17 +499,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CE6474-B55F-4814-9CA8-3499D4FDC1F5}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -527,7 +550,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
@@ -539,7 +562,7 @@
         <v>223.68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>0.6</v>
       </c>
@@ -551,7 +574,7 @@
         <v>126.94</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -563,7 +586,7 @@
         <v>84.62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -575,7 +598,7 @@
         <v>40.06</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -587,7 +610,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -599,7 +622,7 @@
         <v>24.43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -611,7 +634,7 @@
         <v>23.17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -623,7 +646,7 @@
         <v>22.53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -635,7 +658,7 @@
         <v>22.05</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -647,7 +670,7 @@
         <v>21.62</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -659,7 +682,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -671,7 +694,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -683,7 +706,7 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -695,7 +718,7 @@
         <v>20.03</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -707,7 +730,7 @@
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -719,7 +742,7 @@
         <v>18.57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>24</v>
       </c>
@@ -729,6 +752,180 @@
       </c>
       <c r="C19">
         <v>15.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8AA4CE-BB47-B84B-ACD1-2ED7C595BD44}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.615384615384615</v>
+      </c>
+      <c r="C2">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>4.0967032967032964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0.6</v>
+      </c>
+      <c r="B4">
+        <v>2.3249084249084246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1.5498168498168499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.73369963369963376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0.51190476190476186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0.4474358974358974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0.42435897435897441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.41263736263736267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.40384615384615385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.39597069597069595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.38846153846153847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.38113553113553111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>0.373992673992674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>0.36684981684981688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>0.35989010989010983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.34010989010989012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.28553113553113552</v>
       </c>
     </row>
   </sheetData>
